--- a/AAII_Financials/Yearly/NPWR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NPWR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>NPWR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,26 +711,26 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,14 +738,14 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -765,14 +765,14 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -805,14 +805,14 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -863,22 +863,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -887,25 +887,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5900</v>
+        <v>50600</v>
       </c>
       <c r="E17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>36400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -950,14 +950,14 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-50000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-37700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-36400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -990,14 +990,14 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-41600</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-25500</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>-23400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4200</v>
+        <v>-54800</v>
       </c>
       <c r="E23" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-36400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4200</v>
+        <v>-54800</v>
       </c>
       <c r="E26" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-36400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4100</v>
+        <v>-54800</v>
       </c>
       <c r="E27" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-36400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1314,14 +1314,14 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4100</v>
+        <v>-54800</v>
       </c>
       <c r="E33" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-36400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4100</v>
+        <v>-54800</v>
       </c>
       <c r="E35" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-36400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="E41" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>12800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>7500</v>
       </c>
       <c r="E46" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>13600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1670,25 +1670,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>70400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>80400</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>93100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1697,25 +1697,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1778,25 +1778,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>349900</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>345000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351900</v>
+        <v>78100</v>
       </c>
       <c r="E54" s="3">
-        <v>348400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>81900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>107100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1915,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5000</v>
+        <v>7900</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36600</v>
+        <v>5300</v>
       </c>
       <c r="E62" s="3">
-        <v>41800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41300</v>
+        <v>13700</v>
       </c>
       <c r="E66" s="3">
-        <v>41900</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>14400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39300</v>
+        <v>-224500</v>
       </c>
       <c r="E72" s="3">
-        <v>-38600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-169700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-131400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>310500</v>
+        <v>64400</v>
       </c>
       <c r="E76" s="3">
-        <v>306400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>67500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>98600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4100</v>
+        <v>-54800</v>
       </c>
       <c r="E81" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-38300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-36400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,25 +2510,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-900</v>
+        <v>-16600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-20300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-25000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,25 +2712,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-345000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>21500</v>
       </c>
       <c r="E100" s="3">
-        <v>348900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>29000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2970,23 +2970,23 @@
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>4700</v>
       </c>
       <c r="E102" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>-12300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
